--- a/src/analysis_examples/circadb/results_jtk/cosinor_10441864_mllt4_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10441864_mllt4_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18617161909329888, 0.3463671920148727]</t>
+          <t>[0.18195031036135745, 0.35058850074681414]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.867858480281598e-07</v>
+        <v>1.668563869516859e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>7.867858480281598e-07</v>
+        <v>1.668563869516859e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3773684869176925</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.7295790747075399, -0.025157899127845162]</t>
+          <t>[-0.7421580242714629, -0.012578949563922137]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.03693141086932972</v>
+        <v>0.04324334707747535</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03693141086932972</v>
+        <v>0.04324334707747535</v>
       </c>
       <c r="S2" t="n">
         <v>0.3874238436523837</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.34009108603103855, 0.43475660127372884]</t>
+          <t>[0.340101717527437, 0.4347459697773304]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>9.170442183403793e-14</v>
+        <v>9.126033262418787e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>9.170442183403793e-14</v>
+        <v>9.126033262418787e-14</v>
       </c>
       <c r="W2" t="n">
         <v>1.664864864864935</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1109909909909903</v>
+        <v>0.05549549549549293</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.21873873873888</v>
+        <v>3.274234234234377</v>
       </c>
     </row>
   </sheetData>
